--- a/WebRoot/template/project.xlsx
+++ b/WebRoot/template/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12375"/>
+    <workbookView windowWidth="19095" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>长沙县??年?月省、市重点工程项目拆迁补偿进度情况统计表</t>
   </si>
@@ -32,6 +32,14 @@
   </si>
   <si>
     <t>审批单号</t>
+  </si>
+  <si>
+    <t>国土局出资
+（单位名称）</t>
+  </si>
+  <si>
+    <t>其他出资单位
+（单位名称）</t>
   </si>
   <si>
     <t>项目分类</t>
@@ -121,12 +129,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -148,6 +156,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,61 +232,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,24 +262,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,22 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -286,7 +294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,19 +309,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,67 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,30 +483,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,60 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,13 +617,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,24 +658,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +691,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -697,15 +714,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -714,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,201 +734,210 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,23 +1283,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AF3" sqref="AF3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="3" max="6" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:30">
+    <row r="1" ht="21.75" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,8 +1332,10 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1329,30 +1348,32 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="12" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:32">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1362,238 +1383,252 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="AE3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:32">
       <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="10" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="M4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="13" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="Q4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="3" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="U4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="5"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:32">
       <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="3"/>
       <c r="Y5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
+      <c r="Z5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="5"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="5"/>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:30">
+    <row r="6" ht="35" customHeight="1" spans="1:32">
       <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>29</v>
+      <c r="N6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="21" t="s">
+      <c r="R6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="U6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="5"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="W4:Y4"/>
+  <mergeCells count="34">
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="X2:AF2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:W3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="X4:X6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="AA3:AA6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AB3:AB6"/>
     <mergeCell ref="AC3:AC6"/>
     <mergeCell ref="AD3:AD6"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="S4:U5"/>
-    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AF3:AF6"/>
+    <mergeCell ref="U4:W5"/>
+    <mergeCell ref="Q4:S5"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="G3:H4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/WebRoot/template/project.xlsx
+++ b/WebRoot/template/project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>长沙县??年?月省、市重点工程项目拆迁补偿进度情况统计表</t>
   </si>
@@ -32,14 +32,6 @@
   </si>
   <si>
     <t>审批单号</t>
-  </si>
-  <si>
-    <t>国土局出资
-（单位名称）</t>
-  </si>
-  <si>
-    <t>其他出资单位
-（单位名称）</t>
   </si>
   <si>
     <t>项目分类</t>
@@ -131,10 +123,10 @@
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -156,6 +148,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -164,25 +207,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,30 +238,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,75 +291,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -315,181 +307,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,15 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -658,11 +641,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,15 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -714,6 +686,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -725,7 +717,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,210 +726,201 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,23 +1266,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D6"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="6" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" spans="1:32">
+    <row r="1" ht="21.75" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,10 +1315,8 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:30">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1348,32 +1329,30 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="15" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:30">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,252 +1362,238 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="3" t="s">
+      <c r="V3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:30">
       <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="12" t="s">
+      <c r="J4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="W4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="5"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:30">
       <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="X5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="3"/>
       <c r="Y5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="5"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="5"/>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:32">
+    <row r="6" ht="35" customHeight="1" spans="1:30">
       <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="12"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>33</v>
+      <c r="N6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="12" t="s">
+      <c r="R6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="5"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="X2:AF2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:W3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
+  <mergeCells count="32">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
     <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="AA3:AA6"/>
     <mergeCell ref="AB3:AB6"/>
     <mergeCell ref="AC3:AC6"/>
     <mergeCell ref="AD3:AD6"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AF3:AF6"/>
-    <mergeCell ref="U4:W5"/>
-    <mergeCell ref="Q4:S5"/>
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="S4:U5"/>
+    <mergeCell ref="E3:F4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
